--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2677,28 +2677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.2215316703773</v>
+        <v>107.9652487335181</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.3403475737647</v>
+        <v>147.7228164077486</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.9506722965855</v>
+        <v>133.6243581401082</v>
       </c>
       <c r="AD2" t="n">
-        <v>87221.5316703773</v>
+        <v>107965.2487335181</v>
       </c>
       <c r="AE2" t="n">
-        <v>119340.3475737647</v>
+        <v>147722.8164077486</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.594099024966256e-06</v>
+        <v>7.766552343446473e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.409722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>107950.6722965855</v>
+        <v>133624.3581401082</v>
       </c>
     </row>
     <row r="3">
@@ -2783,28 +2783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.52307773906224</v>
+        <v>84.18145394763141</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.91507740295609</v>
+        <v>115.1807791147424</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.62002440171602</v>
+        <v>104.1880872133</v>
       </c>
       <c r="AD3" t="n">
-        <v>63523.07773906224</v>
+        <v>84181.45394763141</v>
       </c>
       <c r="AE3" t="n">
-        <v>86915.07740295609</v>
+        <v>115180.7791147424</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.032157686789224e-06</v>
+        <v>1.019766186226593e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.36033950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>78620.02440171603</v>
+        <v>104188.0872133</v>
       </c>
     </row>
     <row r="4">
@@ -2889,28 +2889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.70550538409223</v>
+        <v>71.12007909722396</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.05995060436859</v>
+        <v>97.30962981723356</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.13282549408005</v>
+        <v>88.0225353224241</v>
       </c>
       <c r="AD4" t="n">
-        <v>60705.50538409223</v>
+        <v>71120.07909722396</v>
       </c>
       <c r="AE4" t="n">
-        <v>83059.9506043686</v>
+        <v>97309.62981723355</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.488227419433687e-06</v>
+        <v>1.096867037374896e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.121141975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>75132.82549408005</v>
+        <v>88022.53532242411</v>
       </c>
     </row>
     <row r="5">
@@ -2995,28 +2995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>48.50478863896751</v>
+        <v>69.24841619355726</v>
       </c>
       <c r="AB5" t="n">
-        <v>66.36639169606283</v>
+        <v>94.74873806049838</v>
       </c>
       <c r="AC5" t="n">
-        <v>60.03247641842061</v>
+        <v>85.70605148071677</v>
       </c>
       <c r="AD5" t="n">
-        <v>48504.78863896751</v>
+        <v>69248.41619355726</v>
       </c>
       <c r="AE5" t="n">
-        <v>66366.39169606284</v>
+        <v>94748.73806049838</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.784851308191854e-06</v>
+        <v>1.147012777504515e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.986111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>60032.47641842061</v>
+        <v>85706.05148071676</v>
       </c>
     </row>
     <row r="6">
@@ -3101,28 +3101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>47.27478947728022</v>
+        <v>68.01841703186997</v>
       </c>
       <c r="AB6" t="n">
-        <v>64.68345257930987</v>
+        <v>93.06579894374541</v>
       </c>
       <c r="AC6" t="n">
-        <v>58.51015464895012</v>
+        <v>84.18372971124627</v>
       </c>
       <c r="AD6" t="n">
-        <v>47274.78947728022</v>
+        <v>68018.41703186998</v>
       </c>
       <c r="AE6" t="n">
-        <v>64683.45257930987</v>
+        <v>93065.79894374541</v>
       </c>
       <c r="AF6" t="n">
-        <v>6.96325629227675e-06</v>
+        <v>1.177173025241823e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.908950617283951</v>
       </c>
       <c r="AH6" t="n">
-        <v>58510.15464895012</v>
+        <v>84183.72971124627</v>
       </c>
     </row>
     <row r="7">
@@ -3207,28 +3207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>46.51515604971739</v>
+        <v>67.25878360430714</v>
       </c>
       <c r="AB7" t="n">
-        <v>63.64408861105731</v>
+        <v>92.02643497549285</v>
       </c>
       <c r="AC7" t="n">
-        <v>57.56998611907076</v>
+        <v>83.24356118136691</v>
       </c>
       <c r="AD7" t="n">
-        <v>46515.15604971739</v>
+        <v>67258.78360430714</v>
       </c>
       <c r="AE7" t="n">
-        <v>63644.08861105731</v>
+        <v>92026.43497549284</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.029271913411491e-06</v>
+        <v>1.188333293539085e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.881944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>57569.98611907076</v>
+        <v>83243.56118136691</v>
       </c>
     </row>
     <row r="8">
@@ -3313,28 +3313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>46.2165921592227</v>
+        <v>66.96021971381245</v>
       </c>
       <c r="AB8" t="n">
-        <v>63.23558032437344</v>
+        <v>91.61792668880898</v>
       </c>
       <c r="AC8" t="n">
-        <v>57.20046528992289</v>
+        <v>82.87404035221904</v>
       </c>
       <c r="AD8" t="n">
-        <v>46216.5921592227</v>
+        <v>66960.21971381245</v>
       </c>
       <c r="AE8" t="n">
-        <v>63235.58032437344</v>
+        <v>91617.92668880898</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.086989628309726e-06</v>
+        <v>1.198090759616006e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.858796296296296</v>
       </c>
       <c r="AH8" t="n">
-        <v>57200.46528992289</v>
+        <v>82874.04035221905</v>
       </c>
     </row>
     <row r="9">
@@ -3419,28 +3419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>46.25583996811628</v>
+        <v>66.99946752270604</v>
       </c>
       <c r="AB9" t="n">
-        <v>63.28928090799275</v>
+        <v>91.67162727242828</v>
       </c>
       <c r="AC9" t="n">
-        <v>57.24904076521083</v>
+        <v>82.92261582750699</v>
       </c>
       <c r="AD9" t="n">
-        <v>46255.83996811628</v>
+        <v>66999.46752270604</v>
       </c>
       <c r="AE9" t="n">
-        <v>63289.28090799275</v>
+        <v>91671.62727242828</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.083260822342687e-06</v>
+        <v>1.19746038646636e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>2.858796296296296</v>
       </c>
       <c r="AH9" t="n">
-        <v>57249.04076521083</v>
+        <v>82922.61582750699</v>
       </c>
     </row>
   </sheetData>
@@ -3716,28 +3716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.22728633580165</v>
+        <v>86.40842202352165</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.61509490627652</v>
+        <v>118.2278150830715</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.96691742752792</v>
+        <v>106.9443183453545</v>
       </c>
       <c r="AD2" t="n">
-        <v>66227.28633580165</v>
+        <v>86408.42202352165</v>
       </c>
       <c r="AE2" t="n">
-        <v>90615.09490627653</v>
+        <v>118227.8150830715</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.426489155886142e-06</v>
+        <v>9.397545122368149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.861882716049382</v>
       </c>
       <c r="AH2" t="n">
-        <v>81966.91742752792</v>
+        <v>106944.3183453545</v>
       </c>
     </row>
     <row r="3">
@@ -3822,28 +3822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.93500411475362</v>
+        <v>68.02566146716467</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.26922854177168</v>
+        <v>93.07571109971754</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.70388462482437</v>
+        <v>84.19269586496422</v>
       </c>
       <c r="AD3" t="n">
-        <v>57935.00411475362</v>
+        <v>68025.66146716467</v>
       </c>
       <c r="AE3" t="n">
-        <v>79269.22854177168</v>
+        <v>93075.71109971753</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.729963568717616e-06</v>
+        <v>1.1654890388994e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.113425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>71703.88462482436</v>
+        <v>84192.69586496422</v>
       </c>
     </row>
     <row r="4">
@@ -3928,28 +3928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>45.61879450910381</v>
+        <v>65.7145893422522</v>
       </c>
       <c r="AB4" t="n">
-        <v>62.41764720651018</v>
+        <v>89.91360026110749</v>
       </c>
       <c r="AC4" t="n">
-        <v>56.4605945608519</v>
+        <v>81.33237244673967</v>
       </c>
       <c r="AD4" t="n">
-        <v>45618.79450910381</v>
+        <v>65714.58934225219</v>
       </c>
       <c r="AE4" t="n">
-        <v>62417.64720651018</v>
+        <v>89913.60026110749</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.158297691373641e-06</v>
+        <v>1.239667557080787e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.928240740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>56460.5945608519</v>
+        <v>81332.37244673967</v>
       </c>
     </row>
     <row r="5">
@@ -4034,28 +4034,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>44.28220036682592</v>
+        <v>64.37799519997429</v>
       </c>
       <c r="AB5" t="n">
-        <v>60.58886013467457</v>
+        <v>88.08481318927188</v>
       </c>
       <c r="AC5" t="n">
-        <v>54.80634436043292</v>
+        <v>79.6781222463207</v>
       </c>
       <c r="AD5" t="n">
-        <v>44282.20036682592</v>
+        <v>64377.99519997429</v>
       </c>
       <c r="AE5" t="n">
-        <v>60588.86013467457</v>
+        <v>88084.81318927188</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.380070888821875e-06</v>
+        <v>1.278074039984949e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.839506172839506</v>
       </c>
       <c r="AH5" t="n">
-        <v>54806.34436043292</v>
+        <v>79678.12224632069</v>
       </c>
     </row>
     <row r="6">
@@ -4140,28 +4140,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>43.49290782405116</v>
+        <v>63.58870265719954</v>
       </c>
       <c r="AB6" t="n">
-        <v>59.50891525652124</v>
+        <v>87.00486831111856</v>
       </c>
       <c r="AC6" t="n">
-        <v>53.82946790573804</v>
+        <v>78.70124579162582</v>
       </c>
       <c r="AD6" t="n">
-        <v>43492.90782405116</v>
+        <v>63588.70265719954</v>
       </c>
       <c r="AE6" t="n">
-        <v>59508.91525652124</v>
+        <v>87004.86831111855</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.517035668529617e-06</v>
+        <v>1.301793477368926e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.789351851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>53829.46790573804</v>
+        <v>78701.24579162583</v>
       </c>
     </row>
     <row r="7">
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>43.56017937976099</v>
+        <v>63.65597421290936</v>
       </c>
       <c r="AB7" t="n">
-        <v>59.60095916685497</v>
+        <v>87.09691222145227</v>
       </c>
       <c r="AC7" t="n">
-        <v>53.91272727445398</v>
+        <v>78.78450516034177</v>
       </c>
       <c r="AD7" t="n">
-        <v>43560.17937976099</v>
+        <v>63655.97421290936</v>
       </c>
       <c r="AE7" t="n">
-        <v>59600.95916685497</v>
+        <v>87096.91222145226</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.515351452674425e-06</v>
+        <v>1.301501806381658e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.789351851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>53912.72727445398</v>
+        <v>78784.50516034177</v>
       </c>
     </row>
   </sheetData>
@@ -4543,28 +4543,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.99861495601048</v>
+        <v>57.14400532687232</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.35962548011738</v>
+        <v>78.18694910378937</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.26705771510144</v>
+        <v>70.72489641741402</v>
       </c>
       <c r="AD2" t="n">
-        <v>38998.61495601047</v>
+        <v>57144.00532687232</v>
       </c>
       <c r="AE2" t="n">
-        <v>53359.62548011738</v>
+        <v>78186.94910378937</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.957608610745539e-06</v>
+        <v>1.505750788709576e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.939814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>48267.05771510144</v>
+        <v>70724.89641741401</v>
       </c>
     </row>
     <row r="3">
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.26459016407907</v>
+        <v>55.40998053494064</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.98705626003357</v>
+        <v>75.8143798836949</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.12092317145355</v>
+        <v>68.57876187376277</v>
       </c>
       <c r="AD3" t="n">
-        <v>37264.59016407907</v>
+        <v>55409.98053494064</v>
       </c>
       <c r="AE3" t="n">
-        <v>50987.05626003357</v>
+        <v>75814.3798836949</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.513589995831453e-06</v>
+        <v>1.610954430915664e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.746913580246914</v>
       </c>
       <c r="AH3" t="n">
-        <v>46120.92317145355</v>
+        <v>68578.76187376278</v>
       </c>
     </row>
   </sheetData>
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.97487620032747</v>
+        <v>63.47159648785085</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.85080682074326</v>
+        <v>86.8446384838562</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.80258946804652</v>
+        <v>78.55630807419338</v>
       </c>
       <c r="AD2" t="n">
-        <v>53974.87620032748</v>
+        <v>63471.59648785085</v>
       </c>
       <c r="AE2" t="n">
-        <v>73850.80682074325</v>
+        <v>86844.63848385621</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.93788149211627e-06</v>
+        <v>1.263931334574862e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.225308641975309</v>
       </c>
       <c r="AH2" t="n">
-        <v>66802.58946804651</v>
+        <v>78556.30807419338</v>
       </c>
     </row>
     <row r="3">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.14673405711356</v>
+        <v>59.05465476048977</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.93053268567896</v>
+        <v>80.80118395076744</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.68803974175101</v>
+        <v>73.08963235969897</v>
       </c>
       <c r="AD3" t="n">
-        <v>40146.73405711356</v>
+        <v>59054.65476048977</v>
       </c>
       <c r="AE3" t="n">
-        <v>54930.53268567896</v>
+        <v>80801.18395076744</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.041504872793222e-06</v>
+        <v>1.464987546617704e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.781635802469136</v>
       </c>
       <c r="AH3" t="n">
-        <v>49688.03974175101</v>
+        <v>73089.63235969897</v>
       </c>
     </row>
     <row r="4">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.47473817776091</v>
+        <v>58.38265888113701</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.01107827718725</v>
+        <v>79.8817295422716</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.85633677154065</v>
+        <v>72.25792938948732</v>
       </c>
       <c r="AD4" t="n">
-        <v>39474.73817776091</v>
+        <v>58382.65888113701</v>
       </c>
       <c r="AE4" t="n">
-        <v>54011.07827718725</v>
+        <v>79881.7295422716</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.19711060774284e-06</v>
+        <v>1.493335532161398e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.731481481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>48856.33677154065</v>
+        <v>72257.92938948731</v>
       </c>
     </row>
   </sheetData>
@@ -5455,28 +5455,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.43526108017824</v>
+        <v>52.95522015974344</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.48408750314921</v>
+        <v>72.45566844196719</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.85683423978007</v>
+        <v>65.54060113805139</v>
       </c>
       <c r="AD2" t="n">
-        <v>35435.26108017824</v>
+        <v>52955.22015974344</v>
       </c>
       <c r="AE2" t="n">
-        <v>48484.08750314921</v>
+        <v>72455.66844196719</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.727675838384386e-06</v>
+        <v>1.71034325819966e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.781635802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>43856.83423978007</v>
+        <v>65540.60113805138</v>
       </c>
     </row>
     <row r="3">
@@ -5561,28 +5561,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.49892693455055</v>
+        <v>53.01888601411576</v>
       </c>
       <c r="AB3" t="n">
-        <v>48.57119793384025</v>
+        <v>72.54277887265862</v>
       </c>
       <c r="AC3" t="n">
-        <v>43.93563097322648</v>
+        <v>65.6193978714979</v>
       </c>
       <c r="AD3" t="n">
-        <v>35498.92693455055</v>
+        <v>53018.88601411576</v>
       </c>
       <c r="AE3" t="n">
-        <v>48571.19793384025</v>
+        <v>72542.77887265862</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.726668430773328e-06</v>
+        <v>1.710145838766613e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.785493827160494</v>
       </c>
       <c r="AH3" t="n">
-        <v>43935.63097322648</v>
+        <v>65619.3978714979</v>
       </c>
     </row>
   </sheetData>
@@ -5858,28 +5858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.66589486571173</v>
+        <v>99.02233262661632</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.95170668071329</v>
+        <v>135.4867240566779</v>
       </c>
       <c r="AC2" t="n">
-        <v>84.98508765717753</v>
+        <v>122.5560612695563</v>
       </c>
       <c r="AD2" t="n">
-        <v>68665.89486571173</v>
+        <v>99022.33262661632</v>
       </c>
       <c r="AE2" t="n">
-        <v>93951.70668071328</v>
+        <v>135486.7240566779</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.202489293321402e-06</v>
+        <v>8.950785060283318e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.993055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>84985.08765717753</v>
+        <v>122556.0612695563</v>
       </c>
     </row>
     <row r="3">
@@ -5964,28 +5964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.36368192068407</v>
+        <v>69.53947791925106</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.22400854466119</v>
+        <v>95.14698155432953</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.47210316778967</v>
+        <v>86.06628717443505</v>
       </c>
       <c r="AD3" t="n">
-        <v>59363.68192068407</v>
+        <v>69539.47791925106</v>
       </c>
       <c r="AE3" t="n">
-        <v>81224.00854466119</v>
+        <v>95146.98155432953</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.537704783821655e-06</v>
+        <v>1.124799821937058e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.179012345679013</v>
       </c>
       <c r="AH3" t="n">
-        <v>73472.10316778967</v>
+        <v>86066.28717443504</v>
       </c>
     </row>
     <row r="4">
@@ -6070,28 +6070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>46.89732262182991</v>
+        <v>67.1633947472902</v>
       </c>
       <c r="AB4" t="n">
-        <v>64.16698577502063</v>
+        <v>91.89591973306294</v>
       </c>
       <c r="AC4" t="n">
-        <v>58.04297871159638</v>
+        <v>83.12550213049518</v>
       </c>
       <c r="AD4" t="n">
-        <v>46897.32262182991</v>
+        <v>67163.39474729019</v>
       </c>
       <c r="AE4" t="n">
-        <v>64166.98577502064</v>
+        <v>91895.91973306294</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.951261386206124e-06</v>
+        <v>1.195951458192348e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.989969135802469</v>
       </c>
       <c r="AH4" t="n">
-        <v>58042.97871159638</v>
+        <v>83125.50213049518</v>
       </c>
     </row>
     <row r="5">
@@ -6176,28 +6176,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>45.48173698436835</v>
+        <v>65.74780910982864</v>
       </c>
       <c r="AB5" t="n">
-        <v>62.23011905461597</v>
+        <v>89.95905301265827</v>
       </c>
       <c r="AC5" t="n">
-        <v>56.29096383257701</v>
+        <v>81.37348725147581</v>
       </c>
       <c r="AD5" t="n">
-        <v>45481.73698436836</v>
+        <v>65747.80910982864</v>
       </c>
       <c r="AE5" t="n">
-        <v>62230.11905461597</v>
+        <v>89959.05301265827</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.193763526180041e-06</v>
+        <v>1.237673495647605e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.885802469135803</v>
       </c>
       <c r="AH5" t="n">
-        <v>56290.96383257701</v>
+        <v>81373.4872514758</v>
       </c>
     </row>
     <row r="6">
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>44.22204248316827</v>
+        <v>64.48811460862855</v>
       </c>
       <c r="AB6" t="n">
-        <v>60.50654946427569</v>
+        <v>88.235483422318</v>
       </c>
       <c r="AC6" t="n">
-        <v>54.73188930489314</v>
+        <v>79.81441272379193</v>
       </c>
       <c r="AD6" t="n">
-        <v>44222.04248316827</v>
+        <v>64488.11460862854</v>
       </c>
       <c r="AE6" t="n">
-        <v>60506.54946427569</v>
+        <v>88235.48342231799</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.396099903183144e-06</v>
+        <v>1.272485089066089e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.808641975308642</v>
       </c>
       <c r="AH6" t="n">
-        <v>54731.88930489313</v>
+        <v>79814.41272379193</v>
       </c>
     </row>
     <row r="7">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>44.2570725171539</v>
+        <v>64.52314464261418</v>
       </c>
       <c r="AB7" t="n">
-        <v>60.55447910219085</v>
+        <v>88.28341306023314</v>
       </c>
       <c r="AC7" t="n">
-        <v>54.77524460543535</v>
+        <v>79.85776802433416</v>
       </c>
       <c r="AD7" t="n">
-        <v>44257.0725171539</v>
+        <v>64523.14464261418</v>
       </c>
       <c r="AE7" t="n">
-        <v>60554.47910219085</v>
+        <v>88283.41306023314</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.382854892873733e-06</v>
+        <v>1.270206309933319e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH7" t="n">
-        <v>54775.24460543536</v>
+        <v>79857.76802433416</v>
       </c>
     </row>
   </sheetData>
@@ -6685,28 +6685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.44321649447456</v>
+        <v>51.59282660574753</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.12672833507773</v>
+        <v>70.5915814768293</v>
       </c>
       <c r="AC2" t="n">
-        <v>42.62901952563973</v>
+        <v>63.85442001660315</v>
       </c>
       <c r="AD2" t="n">
-        <v>34443.21649447456</v>
+        <v>51592.82660574753</v>
       </c>
       <c r="AE2" t="n">
-        <v>47126.72833507773</v>
+        <v>70591.58147682931</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.760733748671896e-06</v>
+        <v>1.756229581595864e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.839506172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>42629.01952563973</v>
+        <v>63854.42001660315</v>
       </c>
     </row>
   </sheetData>
@@ -6982,28 +6982,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.94396418821933</v>
+        <v>79.57246767684896</v>
       </c>
       <c r="AB2" t="n">
-        <v>82.01797634334939</v>
+        <v>108.8745607649373</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.19029579411215</v>
+        <v>98.48372549196525</v>
       </c>
       <c r="AD2" t="n">
-        <v>59943.96418821932</v>
+        <v>79572.46767684896</v>
       </c>
       <c r="AE2" t="n">
-        <v>82017.97634334939</v>
+        <v>108874.5607649373</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.108353968669864e-06</v>
+        <v>1.081834877136106e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.533950617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>74190.29579411214</v>
+        <v>98483.72549196525</v>
       </c>
     </row>
     <row r="3">
@@ -7088,28 +7088,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>44.11261175860806</v>
+        <v>63.65577439266607</v>
       </c>
       <c r="AB3" t="n">
-        <v>60.35682151918964</v>
+        <v>87.09663881857996</v>
       </c>
       <c r="AC3" t="n">
-        <v>54.59645118474156</v>
+        <v>78.78425785065586</v>
       </c>
       <c r="AD3" t="n">
-        <v>44112.61175860806</v>
+        <v>63655.77439266608</v>
       </c>
       <c r="AE3" t="n">
-        <v>60356.82151918964</v>
+        <v>87096.63881857996</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.30574225854026e-06</v>
+        <v>1.293901240693329e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.955246913580247</v>
       </c>
       <c r="AH3" t="n">
-        <v>54596.45118474156</v>
+        <v>78784.25785065586</v>
       </c>
     </row>
     <row r="4">
@@ -7194,28 +7194,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.22734592879465</v>
+        <v>61.77050856285266</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.77731763878181</v>
+        <v>84.51713493817212</v>
       </c>
       <c r="AC4" t="n">
-        <v>52.2631315343226</v>
+        <v>76.45093820023689</v>
       </c>
       <c r="AD4" t="n">
-        <v>42227.34592879465</v>
+        <v>61770.50856285266</v>
       </c>
       <c r="AE4" t="n">
-        <v>57777.31763878181</v>
+        <v>84517.13493817212</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.696680495016106e-06</v>
+        <v>1.363139307314041e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.804783950617284</v>
       </c>
       <c r="AH4" t="n">
-        <v>52263.1315343226</v>
+        <v>76450.93820023689</v>
       </c>
     </row>
     <row r="5">
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.61919346799464</v>
+        <v>61.16235610205605</v>
       </c>
       <c r="AB5" t="n">
-        <v>56.94521661196125</v>
+        <v>83.68503391151759</v>
       </c>
       <c r="AC5" t="n">
-        <v>51.51044506174156</v>
+        <v>75.69825172770489</v>
       </c>
       <c r="AD5" t="n">
-        <v>41619.19346799464</v>
+        <v>61162.35610205605</v>
       </c>
       <c r="AE5" t="n">
-        <v>56945.21661196125</v>
+        <v>83685.03391151759</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.815182248541217e-06</v>
+        <v>1.384126848413132e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.762345679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>51510.44506174156</v>
+        <v>75698.25172770489</v>
       </c>
     </row>
   </sheetData>
@@ -7597,28 +7597,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.28260876592408</v>
+        <v>84.28699215357508</v>
       </c>
       <c r="AB2" t="n">
-        <v>87.95430126205197</v>
+        <v>115.3251811441315</v>
       </c>
       <c r="AC2" t="n">
-        <v>79.56006619425997</v>
+        <v>104.3187077156737</v>
       </c>
       <c r="AD2" t="n">
-        <v>64282.60876592409</v>
+        <v>84286.99215357509</v>
       </c>
       <c r="AE2" t="n">
-        <v>87954.30126205197</v>
+        <v>115325.1811441315</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.614817054088543e-06</v>
+        <v>9.79175066097264e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.769290123456789</v>
       </c>
       <c r="AH2" t="n">
-        <v>79560.06619425997</v>
+        <v>104318.7077156737</v>
       </c>
     </row>
     <row r="3">
@@ -7703,28 +7703,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.72797675720324</v>
+        <v>66.73025795957979</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.61772046088326</v>
+        <v>91.30328287147142</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.20999415726925</v>
+        <v>82.58942569920271</v>
       </c>
       <c r="AD3" t="n">
-        <v>56727.97675720324</v>
+        <v>66730.25795957979</v>
       </c>
       <c r="AE3" t="n">
-        <v>77617.72046088327</v>
+        <v>91303.28287147143</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.896174522559075e-06</v>
+        <v>1.20263261988706e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.06712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>70209.99415726925</v>
+        <v>82589.42569920271</v>
       </c>
     </row>
     <row r="4">
@@ -7809,28 +7809,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>44.55446207120846</v>
+        <v>64.47350460428785</v>
       </c>
       <c r="AB4" t="n">
-        <v>60.96138060994925</v>
+        <v>88.21549336983117</v>
       </c>
       <c r="AC4" t="n">
-        <v>55.14331200438327</v>
+        <v>79.79633049385824</v>
       </c>
       <c r="AD4" t="n">
-        <v>44554.46207120846</v>
+        <v>64473.50460428785</v>
       </c>
       <c r="AE4" t="n">
-        <v>60961.38060994925</v>
+        <v>88215.49336983117</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.330661269347737e-06</v>
+        <v>1.2784033146233e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.885802469135803</v>
       </c>
       <c r="AH4" t="n">
-        <v>55143.31200438327</v>
+        <v>79796.33049385823</v>
       </c>
     </row>
     <row r="5">
@@ -7915,28 +7915,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>43.02342624057609</v>
+        <v>62.94246877365549</v>
       </c>
       <c r="AB5" t="n">
-        <v>58.86654984194531</v>
+        <v>86.12066260182722</v>
       </c>
       <c r="AC5" t="n">
-        <v>53.24840894476351</v>
+        <v>77.90142743423847</v>
       </c>
       <c r="AD5" t="n">
-        <v>43023.4262405761</v>
+        <v>62942.46877365549</v>
       </c>
       <c r="AE5" t="n">
-        <v>58866.54984194531</v>
+        <v>86120.66260182722</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.593426480640907e-06</v>
+        <v>1.32422727302791e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.785493827160494</v>
       </c>
       <c r="AH5" t="n">
-        <v>53248.40894476351</v>
+        <v>77901.42743423847</v>
       </c>
     </row>
     <row r="6">
@@ -8021,28 +8021,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>42.97155206050882</v>
+        <v>62.89059459358821</v>
       </c>
       <c r="AB6" t="n">
-        <v>58.79557330024998</v>
+        <v>86.0496860601319</v>
       </c>
       <c r="AC6" t="n">
-        <v>53.18420630459137</v>
+        <v>77.83722479406632</v>
       </c>
       <c r="AD6" t="n">
-        <v>42971.55206050882</v>
+        <v>62890.59459358821</v>
       </c>
       <c r="AE6" t="n">
-        <v>58795.57330024998</v>
+        <v>86049.68606013191</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.579440855744275e-06</v>
+        <v>1.321788302167301e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.79320987654321</v>
       </c>
       <c r="AH6" t="n">
-        <v>53184.20630459137</v>
+        <v>77837.22479406632</v>
       </c>
     </row>
   </sheetData>
@@ -8318,28 +8318,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.2719519542508</v>
+        <v>104.8615512559286</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.3046024798892</v>
+        <v>143.4762005934439</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.3000930502644</v>
+        <v>129.7830333789566</v>
       </c>
       <c r="AD2" t="n">
-        <v>84271.95195425079</v>
+        <v>104861.5512559286</v>
       </c>
       <c r="AE2" t="n">
-        <v>115304.6024798892</v>
+        <v>143476.2005934439</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.789850853757171e-06</v>
+        <v>8.142428997417784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.263117283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>104300.0930502644</v>
+        <v>129783.0333789567</v>
       </c>
     </row>
     <row r="3">
@@ -8424,28 +8424,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.14378571274575</v>
+        <v>72.481300545146</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.02786920248118</v>
+        <v>99.17211305513153</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.91292870318051</v>
+        <v>89.70726577410933</v>
       </c>
       <c r="AD3" t="n">
-        <v>62143.78571274575</v>
+        <v>72481.300545146</v>
       </c>
       <c r="AE3" t="n">
-        <v>85027.86920248119</v>
+        <v>99172.11305513153</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.191602188379586e-06</v>
+        <v>1.05253133632735e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.298611111111112</v>
       </c>
       <c r="AH3" t="n">
-        <v>76912.92870318051</v>
+        <v>89707.26577410933</v>
       </c>
     </row>
     <row r="4">
@@ -8530,28 +8530,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.42873523353407</v>
+        <v>69.76625006593432</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.31301735725211</v>
+        <v>95.45726120990244</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.5526171042316</v>
+        <v>86.34695417516041</v>
       </c>
       <c r="AD4" t="n">
-        <v>59428.73523353407</v>
+        <v>69766.25006593432</v>
       </c>
       <c r="AE4" t="n">
-        <v>81313.0173572521</v>
+        <v>95457.26120990244</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.66031725755693e-06</v>
+        <v>1.132209791613753e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.06712962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>73552.6171042316</v>
+        <v>86346.95417516041</v>
       </c>
     </row>
     <row r="5">
@@ -8636,28 +8636,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>47.58736548424313</v>
+        <v>68.17687527736996</v>
       </c>
       <c r="AB5" t="n">
-        <v>65.11113286191649</v>
+        <v>93.28260850592277</v>
       </c>
       <c r="AC5" t="n">
-        <v>58.89701772563795</v>
+        <v>84.37984727310364</v>
       </c>
       <c r="AD5" t="n">
-        <v>47587.36548424313</v>
+        <v>68176.87527736995</v>
       </c>
       <c r="AE5" t="n">
-        <v>65111.13286191649</v>
+        <v>93282.60850592276</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.88800457543944e-06</v>
+        <v>1.170915126624688e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.966820987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>58897.01772563795</v>
+        <v>84379.84727310363</v>
       </c>
     </row>
     <row r="6">
@@ -8742,28 +8742,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>46.50737811717833</v>
+        <v>67.09688791030516</v>
       </c>
       <c r="AB6" t="n">
-        <v>63.63344650061922</v>
+        <v>91.80492214462549</v>
       </c>
       <c r="AC6" t="n">
-        <v>57.56035967671659</v>
+        <v>83.04318922418227</v>
       </c>
       <c r="AD6" t="n">
-        <v>46507.37811717833</v>
+        <v>67096.88791030516</v>
       </c>
       <c r="AE6" t="n">
-        <v>63633.44650061922</v>
+        <v>91804.9221446255</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.066300526759668e-06</v>
+        <v>1.201224256668126e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.889660493827161</v>
       </c>
       <c r="AH6" t="n">
-        <v>57560.35967671659</v>
+        <v>83043.18922418226</v>
       </c>
     </row>
     <row r="7">
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>45.47654812897713</v>
+        <v>66.06605792210395</v>
       </c>
       <c r="AB7" t="n">
-        <v>62.22301943375356</v>
+        <v>90.39449507775984</v>
       </c>
       <c r="AC7" t="n">
-        <v>56.28454178956532</v>
+        <v>81.76737133703099</v>
       </c>
       <c r="AD7" t="n">
-        <v>45476.54812897713</v>
+        <v>66066.05792210395</v>
       </c>
       <c r="AE7" t="n">
-        <v>62223.01943375356</v>
+        <v>90394.49507775984</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.203569351514225e-06</v>
+        <v>1.224559047108339e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.835648148148148</v>
       </c>
       <c r="AH7" t="n">
-        <v>56284.54178956532</v>
+        <v>81767.371337031</v>
       </c>
     </row>
     <row r="8">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>45.52561625079848</v>
+        <v>66.1151260439253</v>
       </c>
       <c r="AB8" t="n">
-        <v>62.29015660276225</v>
+        <v>90.46163224676854</v>
       </c>
       <c r="AC8" t="n">
-        <v>56.34527148139145</v>
+        <v>81.82810102885713</v>
       </c>
       <c r="AD8" t="n">
-        <v>45525.61625079848</v>
+        <v>66115.12604392529</v>
       </c>
       <c r="AE8" t="n">
-        <v>62290.15660276225</v>
+        <v>90461.63224676854</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.197852022908945e-06</v>
+        <v>1.223587139137825e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>2.835648148148148</v>
       </c>
       <c r="AH8" t="n">
-        <v>56345.27148139145</v>
+        <v>81828.10102885713</v>
       </c>
     </row>
   </sheetData>
@@ -9251,28 +9251,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.1369138883557</v>
+        <v>75.18261441007122</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.80900216787306</v>
+        <v>102.8681698586772</v>
       </c>
       <c r="AC2" t="n">
-        <v>69.47845880310042</v>
+        <v>93.05057610377411</v>
       </c>
       <c r="AD2" t="n">
-        <v>56136.9138883557</v>
+        <v>75182.61441007123</v>
       </c>
       <c r="AE2" t="n">
-        <v>76809.00216787306</v>
+        <v>102868.1698586772</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.607763632068596e-06</v>
+        <v>1.191536148942541e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.344907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>69478.45880310042</v>
+        <v>93050.5761037741</v>
       </c>
     </row>
     <row r="3">
@@ -9357,28 +9357,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.65422449025673</v>
+        <v>60.78517635799624</v>
       </c>
       <c r="AB3" t="n">
-        <v>56.99314760207962</v>
+        <v>83.1689599456993</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.55380158543475</v>
+        <v>75.23143113686977</v>
       </c>
       <c r="AD3" t="n">
-        <v>41654.22449025673</v>
+        <v>60785.17635799624</v>
       </c>
       <c r="AE3" t="n">
-        <v>56993.14760207963</v>
+        <v>83168.9599456993</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.725981170365998e-06</v>
+        <v>1.393177232590955e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.858796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>51553.80158543475</v>
+        <v>75231.43113686977</v>
       </c>
     </row>
     <row r="4">
@@ -9463,28 +9463,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.13261191542764</v>
+        <v>59.2635637831669</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.91121014839946</v>
+        <v>81.08702249200977</v>
       </c>
       <c r="AC4" t="n">
-        <v>49.67056132031005</v>
+        <v>73.34819087174213</v>
       </c>
       <c r="AD4" t="n">
-        <v>40132.61191542764</v>
+        <v>59263.5637831669</v>
       </c>
       <c r="AE4" t="n">
-        <v>54911.21014839946</v>
+        <v>81087.02249200977</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.087247046503259e-06</v>
+        <v>1.458322019052118e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.731481481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>49670.56132031005</v>
+        <v>73348.19087174213</v>
       </c>
     </row>
   </sheetData>
@@ -9760,28 +9760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.11493191048634</v>
+        <v>59.3667419185135</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.56946075466159</v>
+        <v>81.22819536868899</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.02528765809422</v>
+        <v>73.47589040720851</v>
       </c>
       <c r="AD2" t="n">
-        <v>50114.93191048634</v>
+        <v>59366.7419185135</v>
       </c>
       <c r="AE2" t="n">
-        <v>68569.46075466159</v>
+        <v>81228.19536868899</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.599406494580985e-06</v>
+        <v>1.417806342378985e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.028549382716049</v>
       </c>
       <c r="AH2" t="n">
-        <v>62025.28765809422</v>
+        <v>73475.89040720851</v>
       </c>
     </row>
     <row r="3">
@@ -9866,28 +9866,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.96963172770548</v>
+        <v>56.38773187208892</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.95172523162114</v>
+        <v>77.15218239852517</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.99352549031707</v>
+        <v>69.7888863941957</v>
       </c>
       <c r="AD3" t="n">
-        <v>37969.63172770548</v>
+        <v>56387.73187208892</v>
       </c>
       <c r="AE3" t="n">
-        <v>51951.72523162114</v>
+        <v>77152.18239852517</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.420233552601928e-06</v>
+        <v>1.570946434264877e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.731481481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>46993.52549031707</v>
+        <v>69788.8863941957</v>
       </c>
     </row>
   </sheetData>
@@ -17304,28 +17304,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>36.99564472212613</v>
+        <v>54.84394916054234</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.61907324131985</v>
+        <v>75.03991078570171</v>
       </c>
       <c r="AC2" t="n">
-        <v>45.78805993557737</v>
+        <v>67.8782070195076</v>
       </c>
       <c r="AD2" t="n">
-        <v>36995.64472212613</v>
+        <v>54843.94916054234</v>
       </c>
       <c r="AE2" t="n">
-        <v>50619.07324131986</v>
+        <v>75039.91078570171</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.414122011685389e-06</v>
+        <v>1.61806686544713e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.827932098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>45788.05993557737</v>
+        <v>67878.20701950759</v>
       </c>
     </row>
     <row r="3">
@@ -17410,28 +17410,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.35939180062645</v>
+        <v>54.20769623904257</v>
       </c>
       <c r="AB3" t="n">
-        <v>49.74852392463036</v>
+        <v>74.16936146900829</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.00059462384648</v>
+        <v>67.09074170777549</v>
       </c>
       <c r="AD3" t="n">
-        <v>36359.39180062646</v>
+        <v>54207.69623904257</v>
       </c>
       <c r="AE3" t="n">
-        <v>49748.52392463036</v>
+        <v>74169.36146900829</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.658443385311191e-06</v>
+        <v>1.66505077162717e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.750771604938272</v>
       </c>
       <c r="AH3" t="n">
-        <v>45000.59462384648</v>
+        <v>67090.74170777549</v>
       </c>
     </row>
   </sheetData>
@@ -17707,28 +17707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.34212772302729</v>
+        <v>50.0609203686628</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.62017010138264</v>
+        <v>68.49555978031761</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.26624509529626</v>
+        <v>61.95843968902096</v>
       </c>
       <c r="AD2" t="n">
-        <v>33342.12772302729</v>
+        <v>50060.9203686628</v>
       </c>
       <c r="AE2" t="n">
-        <v>45620.17010138264</v>
+        <v>68495.55978031761</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.685494915612159e-06</v>
+        <v>1.791469591864119e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.943672839506173</v>
       </c>
       <c r="AH2" t="n">
-        <v>41266.24509529625</v>
+        <v>61958.43968902096</v>
       </c>
     </row>
   </sheetData>
@@ -18004,28 +18004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.00746122682703</v>
+        <v>81.82791316720153</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.84134402663545</v>
+        <v>111.9605607880686</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.74420522832771</v>
+        <v>101.2752020041181</v>
       </c>
       <c r="AD2" t="n">
-        <v>62007.46122682704</v>
+        <v>81827.91316720154</v>
       </c>
       <c r="AE2" t="n">
-        <v>84841.34402663546</v>
+        <v>111960.5607880686</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.862196862151223e-06</v>
+        <v>1.029964863617261e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.645833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76744.20522832772</v>
+        <v>101275.2020041181</v>
       </c>
     </row>
     <row r="3">
@@ -18110,28 +18110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.3458110839805</v>
+        <v>65.2561265627188</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.72658040993491</v>
+        <v>89.28631126019987</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.49934185855108</v>
+        <v>80.76495102767284</v>
       </c>
       <c r="AD3" t="n">
-        <v>55345.8110839805</v>
+        <v>65256.1265627188</v>
       </c>
       <c r="AE3" t="n">
-        <v>75726.5804099349</v>
+        <v>89286.31126019987</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.10394408700305e-06</v>
+        <v>1.248134952607123e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.009259259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>68499.34185855108</v>
+        <v>80764.95102767284</v>
       </c>
     </row>
     <row r="4">
@@ -18216,28 +18216,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.25300079723457</v>
+        <v>62.98811188303746</v>
       </c>
       <c r="AB4" t="n">
-        <v>59.1806638784799</v>
+        <v>86.18311351771547</v>
       </c>
       <c r="AC4" t="n">
-        <v>53.53254437851318</v>
+        <v>77.95791812236476</v>
       </c>
       <c r="AD4" t="n">
-        <v>43253.00079723457</v>
+        <v>62988.11188303746</v>
       </c>
       <c r="AE4" t="n">
-        <v>59180.66387847991</v>
+        <v>86183.11351771546</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.547310495876405e-06</v>
+        <v>1.326032681664306e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.83179012345679</v>
       </c>
       <c r="AH4" t="n">
-        <v>53532.54437851318</v>
+        <v>77957.91812236476</v>
       </c>
     </row>
     <row r="5">
@@ -18322,28 +18322,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>42.1824262051496</v>
+        <v>61.91753729095598</v>
       </c>
       <c r="AB5" t="n">
-        <v>57.71585649100761</v>
+        <v>84.71830613041266</v>
       </c>
       <c r="AC5" t="n">
-        <v>52.20753615233391</v>
+        <v>76.63290989623559</v>
       </c>
       <c r="AD5" t="n">
-        <v>42182.4262051496</v>
+        <v>61917.53729095597</v>
       </c>
       <c r="AE5" t="n">
-        <v>57715.85649100761</v>
+        <v>84718.30613041266</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.723903713203773e-06</v>
+        <v>1.357059413327761e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.766203703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>52207.53615233391</v>
+        <v>76632.90989623559</v>
       </c>
     </row>
   </sheetData>
@@ -18619,28 +18619,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.14393011358631</v>
+        <v>102.5744923123966</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.3929491157958</v>
+        <v>140.3469456489853</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6663237967079</v>
+        <v>126.9524301344593</v>
       </c>
       <c r="AD2" t="n">
-        <v>82143.93011358631</v>
+        <v>102574.4923123966</v>
       </c>
       <c r="AE2" t="n">
-        <v>112392.9491157958</v>
+        <v>140346.9456489853</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.942320708617645e-06</v>
+        <v>8.450817627676966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>101666.3237967079</v>
+        <v>126952.4301344593</v>
       </c>
     </row>
     <row r="3">
@@ -18725,28 +18725,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.65724287841304</v>
+        <v>70.91523915937951</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.99391571490688</v>
+        <v>97.02935877737464</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.073092881788</v>
+        <v>87.76901295724636</v>
       </c>
       <c r="AD3" t="n">
-        <v>60657.24287841304</v>
+        <v>70915.2391593795</v>
       </c>
       <c r="AE3" t="n">
-        <v>82993.91571490688</v>
+        <v>97029.35877737464</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.375481619144431e-06</v>
+        <v>1.090136306979273e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.229166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>75073.092881788</v>
+        <v>87769.01295724636</v>
       </c>
     </row>
     <row r="4">
@@ -18831,28 +18831,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.12057743459756</v>
+        <v>68.37857371556404</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.52313814489911</v>
+        <v>93.55858120736687</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.93356145179375</v>
+        <v>84.62948152725211</v>
       </c>
       <c r="AD4" t="n">
-        <v>58120.57743459757</v>
+        <v>68378.57371556404</v>
       </c>
       <c r="AE4" t="n">
-        <v>79523.1381448991</v>
+        <v>93558.58120736686</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.841689946923527e-06</v>
+        <v>1.169852735492213e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.009259259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>71933.56145179375</v>
+        <v>84629.48152725211</v>
       </c>
     </row>
     <row r="5">
@@ -18937,28 +18937,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>46.41755906940941</v>
+        <v>66.84803175966864</v>
       </c>
       <c r="AB5" t="n">
-        <v>63.5105521169251</v>
+        <v>91.46442618056624</v>
       </c>
       <c r="AC5" t="n">
-        <v>57.44919416051886</v>
+        <v>82.73518971704362</v>
       </c>
       <c r="AD5" t="n">
-        <v>46417.55906940941</v>
+        <v>66848.03175966864</v>
       </c>
       <c r="AE5" t="n">
-        <v>63510.5521169251</v>
+        <v>91464.42618056624</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.078317095657754e-06</v>
+        <v>1.210313340896135e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.908950617283951</v>
       </c>
       <c r="AH5" t="n">
-        <v>57449.19416051885</v>
+        <v>82735.18971704363</v>
       </c>
     </row>
     <row r="6">
@@ -19043,28 +19043,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>45.36494588658906</v>
+        <v>65.79541857684828</v>
       </c>
       <c r="AB6" t="n">
-        <v>62.07032032217483</v>
+        <v>90.02419438581595</v>
       </c>
       <c r="AC6" t="n">
-        <v>56.14641606688107</v>
+        <v>81.43241162340583</v>
       </c>
       <c r="AD6" t="n">
-        <v>45364.94588658906</v>
+        <v>65795.41857684827</v>
       </c>
       <c r="AE6" t="n">
-        <v>62070.32032217483</v>
+        <v>90024.19438581595</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.203062786294318e-06</v>
+        <v>1.231643463799128e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.858796296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>56146.41606688107</v>
+        <v>81432.41162340583</v>
       </c>
     </row>
     <row r="7">
@@ -19149,28 +19149,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>44.64545399855199</v>
+        <v>65.07592668881122</v>
       </c>
       <c r="AB7" t="n">
-        <v>61.08587977922113</v>
+        <v>89.03975384286227</v>
       </c>
       <c r="AC7" t="n">
-        <v>55.25592914767557</v>
+        <v>80.54192470420035</v>
       </c>
       <c r="AD7" t="n">
-        <v>44645.453998552</v>
+        <v>65075.92668881122</v>
       </c>
       <c r="AE7" t="n">
-        <v>61085.87977922113</v>
+        <v>89039.75384286226</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.314890865833726e-06</v>
+        <v>1.25076481916146e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.816358024691358</v>
       </c>
       <c r="AH7" t="n">
-        <v>55255.92914767558</v>
+        <v>80541.92470420036</v>
       </c>
     </row>
   </sheetData>
@@ -19446,28 +19446,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.3151540389452</v>
+        <v>48.45317201424658</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.16097233498512</v>
+        <v>66.29576755295496</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.89648655435215</v>
+        <v>59.96859254440931</v>
       </c>
       <c r="AD2" t="n">
-        <v>40315.15403894521</v>
+        <v>48453.17201424659</v>
       </c>
       <c r="AE2" t="n">
-        <v>55160.97233498512</v>
+        <v>66295.76755295496</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.239926453264154e-06</v>
+        <v>1.766195762087225e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.209876543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>49896.48655435215</v>
+        <v>59968.59254440931</v>
       </c>
     </row>
   </sheetData>
@@ -19743,28 +19743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.03971827510853</v>
+        <v>61.41805175873885</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.2030383743177</v>
+        <v>84.03488798948706</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.40752032598061</v>
+        <v>76.01471622349634</v>
       </c>
       <c r="AD2" t="n">
-        <v>52039.71827510853</v>
+        <v>61418.05175873885</v>
       </c>
       <c r="AE2" t="n">
-        <v>71203.03837431769</v>
+        <v>84034.88798948706</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.2592484652717e-06</v>
+        <v>1.337467555282055e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>64407.52032598061</v>
+        <v>76014.71622349633</v>
       </c>
     </row>
     <row r="3">
@@ -19849,28 +19849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.86675261484058</v>
+        <v>57.53789971043046</v>
       </c>
       <c r="AB3" t="n">
-        <v>53.17920560757366</v>
+        <v>78.72589277676711</v>
       </c>
       <c r="AC3" t="n">
-        <v>48.10385686197188</v>
+        <v>71.21240406265511</v>
       </c>
       <c r="AD3" t="n">
-        <v>38866.75261484058</v>
+        <v>57537.89971043046</v>
       </c>
       <c r="AE3" t="n">
-        <v>53179.20560757366</v>
+        <v>78725.89277676711</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.291975646475665e-06</v>
+        <v>1.527740571135701e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.73533950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>48103.85686197189</v>
+        <v>71212.40406265511</v>
       </c>
     </row>
     <row r="4">
@@ -19955,28 +19955,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.73776759465463</v>
+        <v>57.40891469024449</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.00272261253862</v>
+        <v>78.54940978173126</v>
       </c>
       <c r="AC4" t="n">
-        <v>47.94421715628702</v>
+        <v>71.05276435697</v>
       </c>
       <c r="AD4" t="n">
-        <v>38737.76759465463</v>
+        <v>57408.91469024448</v>
       </c>
       <c r="AE4" t="n">
-        <v>53002.72261253862</v>
+        <v>78549.40978173126</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.326542936425453e-06</v>
+        <v>1.534109361101087e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.723765432098765</v>
       </c>
       <c r="AH4" t="n">
-        <v>47944.21715628702</v>
+        <v>71052.76435697</v>
       </c>
     </row>
   </sheetData>
@@ -20252,28 +20252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.02107693251737</v>
+        <v>77.27801321372966</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.38699716830071</v>
+        <v>105.7351869443122</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.81041357892678</v>
+        <v>95.64396910264072</v>
       </c>
       <c r="AD2" t="n">
-        <v>58021.07693251737</v>
+        <v>77278.01321372966</v>
       </c>
       <c r="AE2" t="n">
-        <v>79386.9971683007</v>
+        <v>105735.1869443122</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.345896135871863e-06</v>
+        <v>1.133648033414638e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.441358024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>71810.41357892679</v>
+        <v>95643.96910264072</v>
       </c>
     </row>
     <row r="3">
@@ -20358,28 +20358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.78483881678282</v>
+        <v>62.12702644401568</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.54010400297724</v>
+        <v>85.00493843163797</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.95311863849684</v>
+        <v>76.89218641292302</v>
       </c>
       <c r="AD3" t="n">
-        <v>42784.83881678282</v>
+        <v>62127.02644401568</v>
       </c>
       <c r="AE3" t="n">
-        <v>58540.10400297724</v>
+        <v>85004.93843163797</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.529971370557102e-06</v>
+        <v>1.345174432913686e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.901234567901235</v>
       </c>
       <c r="AH3" t="n">
-        <v>52953.11863849684</v>
+        <v>76892.18641292302</v>
       </c>
     </row>
     <row r="4">
@@ -20464,28 +20464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.09873287259958</v>
+        <v>60.44092049983576</v>
       </c>
       <c r="AB4" t="n">
-        <v>56.23309946424422</v>
+        <v>82.6979338930678</v>
       </c>
       <c r="AC4" t="n">
-        <v>50.86629137513783</v>
+        <v>74.80535914961203</v>
       </c>
       <c r="AD4" t="n">
-        <v>41098.73287259958</v>
+        <v>60440.92049983576</v>
       </c>
       <c r="AE4" t="n">
-        <v>56233.09946424422</v>
+        <v>82697.93389306779</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.912701616108802e-06</v>
+        <v>1.413546398181973e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.758487654320988</v>
       </c>
       <c r="AH4" t="n">
-        <v>50866.29137513783</v>
+        <v>74805.35914961204</v>
       </c>
     </row>
     <row r="5">
@@ -20570,28 +20570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>40.85554013262822</v>
+        <v>60.19772775986436</v>
       </c>
       <c r="AB5" t="n">
-        <v>55.90035242851054</v>
+        <v>82.36518685733262</v>
       </c>
       <c r="AC5" t="n">
-        <v>50.56530124948019</v>
+        <v>74.50436902395393</v>
       </c>
       <c r="AD5" t="n">
-        <v>40855.54013262822</v>
+        <v>60197.72775986436</v>
       </c>
       <c r="AE5" t="n">
-        <v>55900.35242851054</v>
+        <v>82365.18685733262</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.976206989594309e-06</v>
+        <v>1.424891169703863e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.739197530864198</v>
       </c>
       <c r="AH5" t="n">
-        <v>50565.30124948019</v>
+        <v>74504.36902395393</v>
       </c>
     </row>
   </sheetData>
